--- a/_site/xls/Income three-year average.xlsx
+++ b/_site/xls/Income three-year average.xlsx
@@ -6,20 +6,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="135" state="visible" r:id="rId14"/>
-    <sheet name="Median income BHC" sheetId="122" state="visible" r:id="rId1"/>
-    <sheet name="Median income AHC" sheetId="123" state="visible" r:id="rId2"/>
-    <sheet name="Decile points BHC" sheetId="124" state="visible" r:id="rId3"/>
-    <sheet name="Decile points AHC" sheetId="125" state="visible" r:id="rId4"/>
-    <sheet name="Decile shares BHC" sheetId="126" state="visible" r:id="rId5"/>
-    <sheet name="Decile shares AHC" sheetId="127" state="visible" r:id="rId6"/>
-    <sheet name="Palma BHC" sheetId="128" state="visible" r:id="rId7"/>
-    <sheet name="Palma AHC" sheetId="129" state="visible" r:id="rId8"/>
-    <sheet name="Gini BHC" sheetId="130" state="visible" r:id="rId9"/>
-    <sheet name="Gini AHC" sheetId="131" state="visible" r:id="rId10"/>
-    <sheet name="Poverty thresholds BHC" sheetId="132" state="visible" r:id="rId11"/>
-    <sheet name="Poverty thresholds AHC" sheetId="133" state="visible" r:id="rId12"/>
-    <sheet name="Income sources" sheetId="134" state="visible" r:id="rId13"/>
+    <sheet name="Contents" sheetId="149" state="visible" r:id="rId14"/>
+    <sheet name="Median income BHC" sheetId="136" state="visible" r:id="rId1"/>
+    <sheet name="Median income AHC" sheetId="137" state="visible" r:id="rId2"/>
+    <sheet name="Decile points BHC" sheetId="138" state="visible" r:id="rId3"/>
+    <sheet name="Decile points AHC" sheetId="139" state="visible" r:id="rId4"/>
+    <sheet name="Decile shares BHC" sheetId="140" state="visible" r:id="rId5"/>
+    <sheet name="Decile shares AHC" sheetId="141" state="visible" r:id="rId6"/>
+    <sheet name="Palma BHC" sheetId="142" state="visible" r:id="rId7"/>
+    <sheet name="Palma AHC" sheetId="143" state="visible" r:id="rId8"/>
+    <sheet name="Gini BHC" sheetId="144" state="visible" r:id="rId9"/>
+    <sheet name="Gini AHC" sheetId="145" state="visible" r:id="rId10"/>
+    <sheet name="Poverty thresholds BHC" sheetId="146" state="visible" r:id="rId11"/>
+    <sheet name="Poverty thresholds AHC" sheetId="147" state="visible" r:id="rId12"/>
+    <sheet name="Income sources" sheetId="148" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
@@ -3662,22 +3662,22 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI Semibold"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3771,18 +3771,18 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4102,420 +4102,420 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4547,204 +4547,204 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>915</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4784,7 +4784,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>917</v>
       </c>
     </row>
@@ -4818,442 +4818,442 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>936</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>942</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>943</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>946</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>957</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>961</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>1112</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>972</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>973</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>940</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>1114</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>958</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>977</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>979</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>984</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>989</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>991</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>992</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>994</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>997</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>998</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>1000</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>1141</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="6" t="s">
         <v>1166</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="6" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5300,7 +5300,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>917</v>
       </c>
     </row>
@@ -5334,442 +5334,442 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>1005</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>1007</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>1008</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>1017</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>1019</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>1200</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>1203</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>950</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>1028</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>1029</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>1030</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>1031</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>1032</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>1035</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>1037</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>1038</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>1112</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>1041</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>1042</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>1043</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>1044</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>1114</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>944</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>945</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>1047</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>1048</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>1051</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>1054</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>1055</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>1056</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>1058</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>1059</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>1060</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>1063</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>1064</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>1065</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>1066</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>1172</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="6" t="s">
         <v>1173</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="6" t="s">
         <v>1174</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="6" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5812,252 +5812,252 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>1104</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>1078</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>1079</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>1083</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>1084</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>1086</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>1082</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>1088</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>1090</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>1091</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>1094</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>1095</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>1096</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>1081</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>1093</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>1087</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>1089</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>1099</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="6" t="s">
         <v>1089</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="6" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6200,420 +6200,420 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6692,847 +6692,847 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="5" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="5" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="5" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="5" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="5" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="5" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="5" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="5" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="5" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="5" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="5" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="5" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="5" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="5" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="5" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="5" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="5" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="5" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="5" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="5" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="5" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="6" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7577,7 +7577,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7615,847 +7615,847 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>1118</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="5" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="5" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="5" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="5" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="5" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="5" t="s">
         <v>1147</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="5" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="5" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="5" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="5" t="s">
         <v>1151</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="5" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="5" t="s">
         <v>1153</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="5" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="5" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="5" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="5" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="5" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="5" t="s">
         <v>1159</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="5" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="5" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="5" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="6" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>407</v>
       </c>
     </row>
@@ -8540,847 +8540,847 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="5" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="5" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="5" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="5" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="5" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="5" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="5" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="5" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="5" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="5" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="5" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="5" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="5" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="5" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="5" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="5" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="5" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="5" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="5" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="5" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>638</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="6" t="s">
         <v>644</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="6" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -9425,7 +9425,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9465,847 +9465,847 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="5" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="5" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="5" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="5" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="5" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>704</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="5" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="5" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="5" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="5" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="5" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="5" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="5" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="5" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="5" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="5" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="5" t="s">
         <v>811</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="5" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="5" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="5" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="5" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="5" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="6" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10341,204 +10341,204 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>881</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>877</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10570,204 +10570,204 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>901</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10799,204 +10799,204 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>907</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>111</v>
       </c>
     </row>

--- a/_site/xls/Income three-year average.xlsx
+++ b/_site/xls/Income three-year average.xlsx
@@ -6,26 +6,26 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="149" state="visible" r:id="rId14"/>
-    <sheet name="Median income BHC" sheetId="136" state="visible" r:id="rId1"/>
-    <sheet name="Median income AHC" sheetId="137" state="visible" r:id="rId2"/>
-    <sheet name="Decile points BHC" sheetId="138" state="visible" r:id="rId3"/>
-    <sheet name="Decile points AHC" sheetId="139" state="visible" r:id="rId4"/>
-    <sheet name="Decile shares BHC" sheetId="140" state="visible" r:id="rId5"/>
-    <sheet name="Decile shares AHC" sheetId="141" state="visible" r:id="rId6"/>
-    <sheet name="Palma BHC" sheetId="142" state="visible" r:id="rId7"/>
-    <sheet name="Palma AHC" sheetId="143" state="visible" r:id="rId8"/>
-    <sheet name="Gini BHC" sheetId="144" state="visible" r:id="rId9"/>
-    <sheet name="Gini AHC" sheetId="145" state="visible" r:id="rId10"/>
-    <sheet name="Poverty thresholds BHC" sheetId="146" state="visible" r:id="rId11"/>
-    <sheet name="Poverty thresholds AHC" sheetId="147" state="visible" r:id="rId12"/>
-    <sheet name="Income sources" sheetId="148" state="visible" r:id="rId13"/>
+    <sheet name="Contents" sheetId="219" state="visible" r:id="rId14"/>
+    <sheet name="Median income BHC" sheetId="206" state="visible" r:id="rId1"/>
+    <sheet name="Median income AHC" sheetId="207" state="visible" r:id="rId2"/>
+    <sheet name="Decile points BHC" sheetId="208" state="visible" r:id="rId3"/>
+    <sheet name="Decile points AHC" sheetId="209" state="visible" r:id="rId4"/>
+    <sheet name="Decile shares BHC" sheetId="210" state="visible" r:id="rId5"/>
+    <sheet name="Decile shares AHC" sheetId="211" state="visible" r:id="rId6"/>
+    <sheet name="Palma BHC" sheetId="212" state="visible" r:id="rId7"/>
+    <sheet name="Palma AHC" sheetId="213" state="visible" r:id="rId8"/>
+    <sheet name="Gini BHC" sheetId="214" state="visible" r:id="rId9"/>
+    <sheet name="Gini AHC" sheetId="215" state="visible" r:id="rId10"/>
+    <sheet name="Poverty thresholds BHC" sheetId="216" state="visible" r:id="rId11"/>
+    <sheet name="Poverty thresholds AHC" sheetId="217" state="visible" r:id="rId12"/>
+    <sheet name="Income sources" sheetId="218" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1211">
   <si>
     <t xml:space="preserve">Median income before housing costs by age group</t>
   </si>
@@ -3639,6 +3639,27 @@
   </si>
   <si>
     <t xml:space="preserve">296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This workbook contains data used in the charts and tables in the Poverty and Income Inequality in Scotland report, and additional analysis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The report is available here: data.gov.scot/poverty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maike Waldmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottish Government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communities Analysis Division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">social-justice-analysis@gov.scot</t>
   </si>
 </sst>
 </file>
@@ -3660,12 +3681,12 @@
       <name val="Segoe UI Semibold"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
     </font>
@@ -3682,13 +3703,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
+      <name val="Segoe UI Semibold"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI Semibold"/>
-      <b/>
+      <name val="Segoe UI"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3768,7 +3789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3788,6 +3809,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4092,7 +4116,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -4102,7 +4126,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4515,7 +4539,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4533,11 +4557,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="16.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="14.43" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -4547,7 +4571,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>905</v>
       </c>
     </row>
@@ -4744,7 +4768,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4774,7 +4798,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -4784,7 +4808,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>917</v>
       </c>
     </row>
@@ -5253,7 +5277,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5290,7 +5314,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -5300,7 +5324,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>917</v>
       </c>
     </row>
@@ -5769,7 +5793,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5802,7 +5826,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -5812,7 +5836,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1071</v>
       </c>
     </row>
@@ -6057,27 +6081,27 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>1107</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6102,74 +6126,113 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="11" t="str">
+      <c r="B3" s="11" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="11" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="12" t="str">
         <f>=HYPERLINK("#'Median income BHC'!B1", "Median income before housing costs by age group")</f>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="11" t="str">
+    <row r="7">
+      <c r="B7" s="12" t="str">
         <f>=HYPERLINK("#'Median income AHC'!B1", "Median income after housing costs by age group")</f>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="11" t="str">
+    <row r="8">
+      <c r="B8" s="12" t="str">
         <f>=HYPERLINK("#'Decile points BHC'!B1", "Before housing costs income decile points")</f>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="11" t="str">
+    <row r="9">
+      <c r="B9" s="12" t="str">
         <f>=HYPERLINK("#'Decile points AHC'!B1", "After housing costs income decile points")</f>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="11" t="str">
+    <row r="10">
+      <c r="B10" s="12" t="str">
         <f>=HYPERLINK("#'Decile shares BHC'!B1", "Before housing costs income decile shares")</f>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="11" t="str">
+    <row r="11">
+      <c r="B11" s="12" t="str">
         <f>=HYPERLINK("#'Decile shares AHC'!B1", "After housing costs income decile shares")</f>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="11" t="str">
+    <row r="12">
+      <c r="B12" s="12" t="str">
         <f>=HYPERLINK("#'Palma BHC'!B1", "Palma ratio of income inequality before housing costs")</f>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="11" t="str">
+    <row r="13">
+      <c r="B13" s="12" t="str">
         <f>=HYPERLINK("#'Palma AHC'!B1", "Palma ratio of income inequality after housing costs")</f>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="11" t="str">
+    <row r="14">
+      <c r="B14" s="12" t="str">
         <f>=HYPERLINK("#'Gini BHC'!B1", "Gini coefficient of income inequality before housing costs")</f>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="11" t="str">
+    <row r="15">
+      <c r="B15" s="12" t="str">
         <f>=HYPERLINK("#'Gini AHC'!B1", "Gini coefficient of income inequality after housing costs")</f>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="11" t="str">
+    <row r="16">
+      <c r="B16" s="12" t="str">
         <f>=HYPERLINK("#'Poverty thresholds BHC'!B1", "Before housing costs income thresholds for different household types")</f>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="11" t="str">
+    <row r="17">
+      <c r="B17" s="12" t="str">
         <f>=HYPERLINK("#'Poverty thresholds AHC'!B1", "After housing costs income thresholds for different household types")</f>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="11" t="str">
+    <row r="18">
+      <c r="B18" s="12" t="str">
         <f>=HYPERLINK("#'Income sources'!B1", "Income sources by income decile")</f>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="11"/>
+    <row r="19">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="11" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="11" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="11" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="11" t="s">
+        <v>1210</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1h"/>
+    <hyperlink ref="B24" r:id="rId2h"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -6190,7 +6253,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -6200,7 +6263,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6613,7 +6676,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6644,7 +6707,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -6654,7 +6717,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -7532,7 +7595,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -7567,7 +7630,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -7577,7 +7640,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>170</v>
       </c>
     </row>
@@ -8455,7 +8518,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8490,7 +8553,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -8500,7 +8563,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>407</v>
       </c>
     </row>
@@ -9380,7 +9443,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -9402,20 +9465,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="3" max="3" width="5.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="6.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="6.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="6.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="6.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="6.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="6.60375" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="6.60375" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="6.60375" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="7.7825" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="7.7825" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="7.7825" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="7.7825" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="7.7825" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="7.7825" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="7.7825" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -9425,7 +9488,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>407</v>
       </c>
     </row>
@@ -10305,7 +10368,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10331,7 +10394,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -10341,7 +10404,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>872</v>
       </c>
     </row>
@@ -10538,7 +10601,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10560,7 +10623,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -10570,7 +10633,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>872</v>
       </c>
     </row>
@@ -10767,7 +10830,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -10789,7 +10852,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="12" t="str">
+      <c r="B1" s="13" t="str">
         <f>=HYPERLINK("#'Contents'!B2", "BACK")</f>
       </c>
     </row>
@@ -10799,7 +10862,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>905</v>
       </c>
     </row>
@@ -10996,7 +11059,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
     </row>

--- a/_site/xls/Income three-year average.xlsx
+++ b/_site/xls/Income three-year average.xlsx
@@ -6,26 +6,26 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="219" state="visible" r:id="rId14"/>
-    <sheet name="Median income BHC" sheetId="206" state="visible" r:id="rId1"/>
-    <sheet name="Median income AHC" sheetId="207" state="visible" r:id="rId2"/>
-    <sheet name="Decile points BHC" sheetId="208" state="visible" r:id="rId3"/>
-    <sheet name="Decile points AHC" sheetId="209" state="visible" r:id="rId4"/>
-    <sheet name="Decile shares BHC" sheetId="210" state="visible" r:id="rId5"/>
-    <sheet name="Decile shares AHC" sheetId="211" state="visible" r:id="rId6"/>
-    <sheet name="Palma BHC" sheetId="212" state="visible" r:id="rId7"/>
-    <sheet name="Palma AHC" sheetId="213" state="visible" r:id="rId8"/>
-    <sheet name="Gini BHC" sheetId="214" state="visible" r:id="rId9"/>
-    <sheet name="Gini AHC" sheetId="215" state="visible" r:id="rId10"/>
-    <sheet name="Poverty thresholds BHC" sheetId="216" state="visible" r:id="rId11"/>
-    <sheet name="Poverty thresholds AHC" sheetId="217" state="visible" r:id="rId12"/>
-    <sheet name="Income sources" sheetId="218" state="visible" r:id="rId13"/>
+    <sheet name="Contents" sheetId="233" state="visible" r:id="rId14"/>
+    <sheet name="Median income BHC" sheetId="220" state="visible" r:id="rId1"/>
+    <sheet name="Median income AHC" sheetId="221" state="visible" r:id="rId2"/>
+    <sheet name="Decile points BHC" sheetId="222" state="visible" r:id="rId3"/>
+    <sheet name="Decile points AHC" sheetId="223" state="visible" r:id="rId4"/>
+    <sheet name="Decile shares BHC" sheetId="224" state="visible" r:id="rId5"/>
+    <sheet name="Decile shares AHC" sheetId="225" state="visible" r:id="rId6"/>
+    <sheet name="Palma BHC" sheetId="226" state="visible" r:id="rId7"/>
+    <sheet name="Palma AHC" sheetId="227" state="visible" r:id="rId8"/>
+    <sheet name="Gini BHC" sheetId="228" state="visible" r:id="rId9"/>
+    <sheet name="Gini AHC" sheetId="229" state="visible" r:id="rId10"/>
+    <sheet name="Poverty thresholds BHC" sheetId="230" state="visible" r:id="rId11"/>
+    <sheet name="Poverty thresholds AHC" sheetId="231" state="visible" r:id="rId12"/>
+    <sheet name="Income sources" sheetId="232" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="1237">
   <si>
     <t xml:space="preserve">Median income before housing costs by age group</t>
   </si>
@@ -3660,6 +3660,84 @@
   </si>
   <si>
     <t xml:space="preserve">social-justice-analysis@gov.scot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median weekly equivalised household income in £ (in 2018/19 prices), Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996/97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997/98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998/99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999/00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000/01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002/03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013/14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014/15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016/17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median weekly equivalised household income decile points in £ (in 2018/19 prices), Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annual household income shares in £ million (in 2018/19 prices), Scotland</t>
   </si>
 </sst>
 </file>
@@ -4127,7 +4205,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="6">
@@ -4149,7 +4227,7 @@
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -4166,7 +4244,7 @@
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
@@ -4183,7 +4261,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>18</v>
@@ -4200,7 +4278,7 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>23</v>
@@ -4217,7 +4295,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>28</v>
@@ -4234,7 +4312,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>33</v>
@@ -4251,7 +4329,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>38</v>
@@ -4268,7 +4346,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>43</v>
@@ -4285,7 +4363,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>48</v>
@@ -4302,7 +4380,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>52</v>
@@ -4319,7 +4397,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>56</v>
@@ -4336,7 +4414,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>61</v>
@@ -4353,7 +4431,7 @@
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>66</v>
@@ -4370,7 +4448,7 @@
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>45</v>
@@ -4387,7 +4465,7 @@
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>74</v>
@@ -4404,7 +4482,7 @@
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>78</v>
@@ -4421,7 +4499,7 @@
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>82</v>
@@ -4438,7 +4516,7 @@
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>66</v>
@@ -4455,7 +4533,7 @@
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>78</v>
@@ -4472,7 +4550,7 @@
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>45</v>
@@ -4489,7 +4567,7 @@
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>95</v>
@@ -4506,7 +4584,7 @@
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>99</v>
@@ -4523,7 +4601,7 @@
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>103</v>
@@ -4585,7 +4663,7 @@
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>909</v>
@@ -4593,7 +4671,7 @@
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>912</v>
@@ -4601,7 +4679,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>912</v>
@@ -4609,7 +4687,7 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>913</v>
@@ -4617,7 +4695,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>914</v>
@@ -4625,7 +4703,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>913</v>
@@ -4633,7 +4711,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>913</v>
@@ -4641,7 +4719,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>912</v>
@@ -4649,7 +4727,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>912</v>
@@ -4657,7 +4735,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>912</v>
@@ -4665,7 +4743,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>912</v>
@@ -4673,7 +4751,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>913</v>
@@ -4681,7 +4759,7 @@
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>914</v>
@@ -4689,7 +4767,7 @@
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>915</v>
@@ -4697,7 +4775,7 @@
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>914</v>
@@ -4705,7 +4783,7 @@
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>913</v>
@@ -4713,7 +4791,7 @@
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>912</v>
@@ -4721,7 +4799,7 @@
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>912</v>
@@ -4729,7 +4807,7 @@
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>912</v>
@@ -4737,7 +4815,7 @@
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>913</v>
@@ -4745,7 +4823,7 @@
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>914</v>
@@ -4753,7 +4831,7 @@
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>914</v>
@@ -4761,7 +4839,7 @@
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>914</v>
@@ -4988,7 +5066,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>1109</v>
+        <v>953</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>954</v>
@@ -5017,7 +5095,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>1110</v>
+        <v>959</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>960</v>
@@ -5046,7 +5124,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>1111</v>
+        <v>965</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>184</v>
@@ -5075,7 +5153,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>1112</v>
+        <v>970</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>21</v>
@@ -5104,7 +5182,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>1113</v>
+        <v>975</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>36</v>
@@ -5133,7 +5211,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>1114</v>
+        <v>976</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>156</v>
@@ -5162,7 +5240,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>1115</v>
+        <v>981</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>30</v>
@@ -5191,7 +5269,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>1116</v>
+        <v>988</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>989</v>
@@ -5219,65 +5297,36 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>997</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>998</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>999</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>1000</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>1002</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="6" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>1169</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5504,7 +5553,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>1109</v>
+        <v>953</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1027</v>
@@ -5533,7 +5582,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>1110</v>
+        <v>959</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1032</v>
@@ -5562,7 +5611,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>1111</v>
+        <v>965</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1037</v>
@@ -5591,7 +5640,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>1112</v>
+        <v>970</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>234</v>
@@ -5620,7 +5669,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>1113</v>
+        <v>975</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>122</v>
@@ -5649,7 +5698,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>1114</v>
+        <v>976</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>944</v>
@@ -5678,7 +5727,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>1115</v>
+        <v>981</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1051</v>
@@ -5707,7 +5756,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>1116</v>
+        <v>988</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>135</v>
@@ -5735,65 +5784,36 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="5" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="6" t="s">
+        <v>996</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>1063</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="6" t="s">
         <v>1065</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>1067</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="6" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="6" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>1174</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6264,7 +6284,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="6">
@@ -6286,7 +6306,7 @@
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>113</v>
@@ -6303,7 +6323,7 @@
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -6320,7 +6340,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>119</v>
@@ -6337,7 +6357,7 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>123</v>
@@ -6354,7 +6374,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>127</v>
@@ -6371,7 +6391,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -6388,7 +6408,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>133</v>
@@ -6405,7 +6425,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>137</v>
@@ -6422,7 +6442,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>140</v>
@@ -6439,7 +6459,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>144</v>
@@ -6456,7 +6476,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>49</v>
@@ -6473,7 +6493,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>149</v>
@@ -6490,7 +6510,7 @@
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>85</v>
@@ -6507,7 +6527,7 @@
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>155</v>
@@ -6524,7 +6544,7 @@
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>158</v>
@@ -6541,7 +6561,7 @@
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>62</v>
@@ -6558,7 +6578,7 @@
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>57</v>
@@ -6575,7 +6595,7 @@
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>87</v>
@@ -6592,7 +6612,7 @@
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>62</v>
@@ -6609,7 +6629,7 @@
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>30</v>
@@ -6626,7 +6646,7 @@
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>161</v>
@@ -6643,7 +6663,7 @@
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>96</v>
@@ -6660,7 +6680,7 @@
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>105</v>
@@ -6703,7 +6723,6 @@
     <col min="9" max="9" width="3.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="3.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="3.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="6.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6718,7 +6737,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
@@ -6752,7 +6771,6 @@
       <c r="K5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L5" s="7"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
@@ -6785,13 +6803,10 @@
       <c r="K6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>1118</v>
-      </c>
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>182</v>
@@ -6820,13 +6835,10 @@
       <c r="K7" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>1119</v>
-      </c>
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>190</v>
@@ -6855,13 +6867,10 @@
       <c r="K8" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>1120</v>
-      </c>
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>196</v>
@@ -6890,13 +6899,10 @@
       <c r="K9" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>1121</v>
-      </c>
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>202</v>
@@ -6925,13 +6931,10 @@
       <c r="K10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>1122</v>
-      </c>
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>207</v>
@@ -6960,13 +6963,10 @@
       <c r="K11" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>1123</v>
-      </c>
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>213</v>
@@ -6995,13 +6995,10 @@
       <c r="K12" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>1124</v>
-      </c>
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>183</v>
@@ -7030,13 +7027,10 @@
       <c r="K13" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>1125</v>
-      </c>
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>227</v>
@@ -7065,13 +7059,10 @@
       <c r="K14" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>1126</v>
-      </c>
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>234</v>
@@ -7100,13 +7091,10 @@
       <c r="K15" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>1127</v>
-      </c>
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>238</v>
@@ -7135,13 +7123,10 @@
       <c r="K16" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>1128</v>
-      </c>
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>246</v>
@@ -7170,13 +7155,10 @@
       <c r="K17" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>1129</v>
-      </c>
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>252</v>
@@ -7205,13 +7187,10 @@
       <c r="K18" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>1130</v>
-      </c>
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>258</v>
@@ -7240,13 +7219,10 @@
       <c r="K19" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>1131</v>
-      </c>
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>264</v>
@@ -7275,13 +7251,10 @@
       <c r="K20" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>1132</v>
-      </c>
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>114</v>
@@ -7310,13 +7283,10 @@
       <c r="K21" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>1133</v>
-      </c>
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>274</v>
@@ -7345,13 +7315,10 @@
       <c r="K22" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>1134</v>
-      </c>
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>279</v>
@@ -7380,13 +7347,10 @@
       <c r="K23" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>1135</v>
-      </c>
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>279</v>
@@ -7415,13 +7379,10 @@
       <c r="K24" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>1136</v>
-      </c>
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>114</v>
@@ -7450,13 +7411,10 @@
       <c r="K25" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>1137</v>
-      </c>
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>293</v>
@@ -7485,13 +7443,10 @@
       <c r="K26" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>1138</v>
-      </c>
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>298</v>
@@ -7520,13 +7475,10 @@
       <c r="K27" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>1139</v>
-      </c>
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>114</v>
@@ -7555,13 +7507,10 @@
       <c r="K28" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>1140</v>
-      </c>
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>308</v>
@@ -7589,9 +7538,6 @@
       </c>
       <c r="K29" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="30">
@@ -7626,7 +7572,6 @@
     <col min="9" max="9" width="3.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="3.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="3.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="6.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7641,7 +7586,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>170</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
@@ -7675,7 +7620,6 @@
       <c r="K5" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L5" s="7"/>
     </row>
     <row r="6">
       <c r="B6" s="4" t="s">
@@ -7708,13 +7652,10 @@
       <c r="K6" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>1118</v>
-      </c>
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>322</v>
@@ -7743,13 +7684,10 @@
       <c r="K7" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>1142</v>
-      </c>
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>327</v>
@@ -7778,13 +7716,10 @@
       <c r="K8" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>1143</v>
-      </c>
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>334</v>
@@ -7813,13 +7748,10 @@
       <c r="K9" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>1144</v>
-      </c>
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>337</v>
@@ -7848,13 +7780,10 @@
       <c r="K10" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>1145</v>
-      </c>
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>341</v>
@@ -7883,13 +7812,10 @@
       <c r="K11" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>1146</v>
-      </c>
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>348</v>
@@ -7918,13 +7844,10 @@
       <c r="K12" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>1147</v>
-      </c>
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>323</v>
@@ -7953,13 +7876,10 @@
       <c r="K13" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="L13" s="5" t="s">
-        <v>1148</v>
-      </c>
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>352</v>
@@ -7988,13 +7908,10 @@
       <c r="K14" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>1149</v>
-      </c>
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>355</v>
@@ -8023,13 +7940,10 @@
       <c r="K15" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>1150</v>
-      </c>
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>190</v>
@@ -8058,13 +7972,10 @@
       <c r="K16" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="L16" s="5" t="s">
-        <v>592</v>
-      </c>
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>362</v>
@@ -8093,13 +8004,10 @@
       <c r="K17" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="L17" s="5" t="s">
-        <v>1151</v>
-      </c>
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>366</v>
@@ -8128,13 +8036,10 @@
       <c r="K18" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="L18" s="5" t="s">
-        <v>1152</v>
-      </c>
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>362</v>
@@ -8163,13 +8068,10 @@
       <c r="K19" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>1153</v>
-      </c>
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>338</v>
@@ -8198,13 +8100,10 @@
       <c r="K20" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="L20" s="5" t="s">
-        <v>1154</v>
-      </c>
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>378</v>
@@ -8233,13 +8132,10 @@
       <c r="K21" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="L21" s="5" t="s">
-        <v>1155</v>
-      </c>
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>384</v>
@@ -8268,13 +8164,10 @@
       <c r="K22" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="L22" s="5" t="s">
-        <v>1156</v>
-      </c>
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>196</v>
@@ -8303,13 +8196,10 @@
       <c r="K23" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>1157</v>
-      </c>
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>190</v>
@@ -8338,13 +8228,10 @@
       <c r="K24" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="L24" s="5" t="s">
-        <v>1158</v>
-      </c>
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>190</v>
@@ -8373,13 +8260,10 @@
       <c r="K25" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="L25" s="5" t="s">
-        <v>1159</v>
-      </c>
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>378</v>
@@ -8408,13 +8292,10 @@
       <c r="K26" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="L26" s="5" t="s">
-        <v>1160</v>
-      </c>
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>396</v>
@@ -8443,13 +8324,10 @@
       <c r="K27" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="L27" s="5" t="s">
-        <v>1161</v>
-      </c>
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>190</v>
@@ -8478,13 +8356,10 @@
       <c r="K28" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="L28" s="5" t="s">
-        <v>1162</v>
-      </c>
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>378</v>
@@ -8512,9 +8387,6 @@
       </c>
       <c r="K29" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="30">
@@ -8564,7 +8436,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>407</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
@@ -8639,7 +8511,7 @@
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>418</v>
@@ -8674,7 +8546,7 @@
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>428</v>
@@ -8709,7 +8581,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>438</v>
@@ -8744,7 +8616,7 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>448</v>
@@ -8779,7 +8651,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>458</v>
@@ -8814,7 +8686,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>468</v>
@@ -8849,7 +8721,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>478</v>
@@ -8884,7 +8756,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>488</v>
@@ -8919,7 +8791,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>498</v>
@@ -8954,7 +8826,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>508</v>
@@ -8989,7 +8861,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>518</v>
@@ -9024,7 +8896,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>528</v>
@@ -9059,7 +8931,7 @@
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>538</v>
@@ -9094,7 +8966,7 @@
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>548</v>
@@ -9129,7 +9001,7 @@
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>558</v>
@@ -9164,7 +9036,7 @@
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>568</v>
@@ -9199,7 +9071,7 @@
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>578</v>
@@ -9234,7 +9106,7 @@
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>588</v>
@@ -9269,7 +9141,7 @@
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>598</v>
@@ -9304,7 +9176,7 @@
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>608</v>
@@ -9339,7 +9211,7 @@
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>618</v>
@@ -9374,7 +9246,7 @@
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>628</v>
@@ -9409,7 +9281,7 @@
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>638</v>
@@ -9489,7 +9361,7 @@
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>407</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1">
@@ -9564,7 +9436,7 @@
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>650</v>
@@ -9599,7 +9471,7 @@
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>659</v>
@@ -9634,7 +9506,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>669</v>
@@ -9669,7 +9541,7 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>679</v>
@@ -9704,7 +9576,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>688</v>
@@ -9739,7 +9611,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>698</v>
@@ -9774,7 +9646,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>708</v>
@@ -9809,7 +9681,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>717</v>
@@ -9844,7 +9716,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>727</v>
@@ -9879,7 +9751,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>737</v>
@@ -9914,7 +9786,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>746</v>
@@ -9949,7 +9821,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>756</v>
@@ -9984,7 +9856,7 @@
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>765</v>
@@ -10019,7 +9891,7 @@
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>775</v>
@@ -10054,7 +9926,7 @@
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>784</v>
@@ -10089,7 +9961,7 @@
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>793</v>
@@ -10124,7 +9996,7 @@
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>803</v>
@@ -10159,7 +10031,7 @@
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>812</v>
@@ -10194,7 +10066,7 @@
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>821</v>
@@ -10229,7 +10101,7 @@
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>831</v>
@@ -10264,7 +10136,7 @@
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>841</v>
@@ -10299,7 +10171,7 @@
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>851</v>
@@ -10334,7 +10206,7 @@
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>861</v>
@@ -10418,7 +10290,7 @@
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>874</v>
@@ -10426,7 +10298,7 @@
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>875</v>
@@ -10434,7 +10306,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>876</v>
@@ -10442,7 +10314,7 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>877</v>
@@ -10450,7 +10322,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>878</v>
@@ -10458,7 +10330,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>879</v>
@@ -10466,7 +10338,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>877</v>
@@ -10474,7 +10346,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>876</v>
@@ -10482,7 +10354,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>880</v>
@@ -10490,7 +10362,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>880</v>
@@ -10498,7 +10370,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>876</v>
@@ -10506,7 +10378,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>881</v>
@@ -10514,7 +10386,7 @@
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>882</v>
@@ -10522,7 +10394,7 @@
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>883</v>
@@ -10530,7 +10402,7 @@
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>884</v>
@@ -10538,7 +10410,7 @@
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>877</v>
@@ -10546,7 +10418,7 @@
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>876</v>
@@ -10554,7 +10426,7 @@
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>875</v>
@@ -10562,7 +10434,7 @@
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>885</v>
@@ -10570,7 +10442,7 @@
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>877</v>
@@ -10578,7 +10450,7 @@
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>886</v>
@@ -10586,7 +10458,7 @@
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>878</v>
@@ -10594,7 +10466,7 @@
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>887</v>
@@ -10647,7 +10519,7 @@
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>882</v>
@@ -10655,7 +10527,7 @@
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>890</v>
@@ -10663,7 +10535,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>891</v>
@@ -10671,7 +10543,7 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>892</v>
@@ -10679,7 +10551,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>893</v>
@@ -10687,7 +10559,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>894</v>
@@ -10695,7 +10567,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>892</v>
@@ -10703,7 +10575,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>883</v>
@@ -10711,7 +10583,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>890</v>
@@ -10719,7 +10591,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>890</v>
@@ -10727,7 +10599,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>895</v>
@@ -10735,7 +10607,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>896</v>
@@ -10743,7 +10615,7 @@
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>897</v>
@@ -10751,7 +10623,7 @@
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>898</v>
@@ -10759,7 +10631,7 @@
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>899</v>
@@ -10767,7 +10639,7 @@
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>896</v>
@@ -10775,7 +10647,7 @@
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>900</v>
@@ -10783,7 +10655,7 @@
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>901</v>
@@ -10791,7 +10663,7 @@
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>902</v>
@@ -10799,7 +10671,7 @@
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>903</v>
@@ -10807,7 +10679,7 @@
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>893</v>
@@ -10815,7 +10687,7 @@
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>897</v>
@@ -10823,7 +10695,7 @@
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>894</v>
@@ -10876,7 +10748,7 @@
     </row>
     <row r="7">
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>1212</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>907</v>
@@ -10884,7 +10756,7 @@
     </row>
     <row r="8">
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>1213</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>907</v>
@@ -10892,7 +10764,7 @@
     </row>
     <row r="9">
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>1214</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>907</v>
@@ -10900,7 +10772,7 @@
     </row>
     <row r="10">
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>1215</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>908</v>
@@ -10908,7 +10780,7 @@
     </row>
     <row r="11">
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>1216</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>909</v>
@@ -10916,7 +10788,7 @@
     </row>
     <row r="12">
       <c r="B12" s="5" t="s">
-        <v>32</v>
+        <v>1217</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>909</v>
@@ -10924,7 +10796,7 @@
     </row>
     <row r="13">
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>1218</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>908</v>
@@ -10932,7 +10804,7 @@
     </row>
     <row r="14">
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>1219</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>907</v>
@@ -10940,7 +10812,7 @@
     </row>
     <row r="15">
       <c r="B15" s="5" t="s">
-        <v>47</v>
+        <v>1220</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>907</v>
@@ -10948,7 +10820,7 @@
     </row>
     <row r="16">
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>1221</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>907</v>
@@ -10956,7 +10828,7 @@
     </row>
     <row r="17">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>1222</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>907</v>
@@ -10964,7 +10836,7 @@
     </row>
     <row r="18">
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>1223</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>908</v>
@@ -10972,7 +10844,7 @@
     </row>
     <row r="19">
       <c r="B19" s="5" t="s">
-        <v>65</v>
+        <v>1224</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>909</v>
@@ -10980,7 +10852,7 @@
     </row>
     <row r="20">
       <c r="B20" s="5" t="s">
-        <v>69</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>909</v>
@@ -10988,7 +10860,7 @@
     </row>
     <row r="21">
       <c r="B21" s="5" t="s">
-        <v>73</v>
+        <v>1226</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>909</v>
@@ -10996,7 +10868,7 @@
     </row>
     <row r="22">
       <c r="B22" s="5" t="s">
-        <v>77</v>
+        <v>1227</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>908</v>
@@ -11004,7 +10876,7 @@
     </row>
     <row r="23">
       <c r="B23" s="5" t="s">
-        <v>81</v>
+        <v>1228</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>907</v>
@@ -11012,7 +10884,7 @@
     </row>
     <row r="24">
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>1229</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>907</v>
@@ -11020,7 +10892,7 @@
     </row>
     <row r="25">
       <c r="B25" s="5" t="s">
-        <v>89</v>
+        <v>1230</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>907</v>
@@ -11028,7 +10900,7 @@
     </row>
     <row r="26">
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>1231</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>908</v>
@@ -11036,7 +10908,7 @@
     </row>
     <row r="27">
       <c r="B27" s="5" t="s">
-        <v>94</v>
+        <v>1232</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>908</v>
@@ -11044,7 +10916,7 @@
     </row>
     <row r="28">
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>1233</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>909</v>
@@ -11052,7 +10924,7 @@
     </row>
     <row r="29">
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>1234</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>908</v>
